--- a/Code/Results/Cases/Case_5_175/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_175/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9548035149301484</v>
+        <v>0.3831433893464293</v>
       </c>
       <c r="C2">
-        <v>0.1714904899178862</v>
+        <v>0.05921439310084509</v>
       </c>
       <c r="D2">
-        <v>0.2208161341332868</v>
+        <v>0.2021402031681134</v>
       </c>
       <c r="E2">
-        <v>0.1756150210158722</v>
+        <v>0.1699234821611597</v>
       </c>
       <c r="F2">
-        <v>0.7421634586297827</v>
+        <v>1.364870054439962</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.2891875016342631</v>
+        <v>0.6573968767895586</v>
       </c>
       <c r="J2">
-        <v>0.1848359447104855</v>
+        <v>0.186067691903574</v>
       </c>
       <c r="K2">
-        <v>1.073494979571649</v>
+        <v>0.4153500648292834</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7483494147297343</v>
+        <v>1.534556796755314</v>
       </c>
       <c r="O2">
-        <v>1.59669648659181</v>
+        <v>3.250231393374804</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8298239992024605</v>
+        <v>0.346556099387044</v>
       </c>
       <c r="C3">
-        <v>0.1491394858538513</v>
+        <v>0.05264474798234176</v>
       </c>
       <c r="D3">
-        <v>0.1951367682239606</v>
+        <v>0.1959791953396888</v>
       </c>
       <c r="E3">
-        <v>0.1562607455218057</v>
+        <v>0.1656344628850945</v>
       </c>
       <c r="F3">
-        <v>0.7100145212248776</v>
+        <v>1.366129896015096</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.2915746615966128</v>
+        <v>0.6627194558780936</v>
       </c>
       <c r="J3">
-        <v>0.1654361870771055</v>
+        <v>0.1820667567137662</v>
       </c>
       <c r="K3">
-        <v>0.9329789936018074</v>
+        <v>0.3741560588014181</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7846099228267764</v>
+        <v>1.550230229227868</v>
       </c>
       <c r="O3">
-        <v>1.563085860047821</v>
+        <v>3.265215660862069</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7532121784362289</v>
+        <v>0.3241472087430566</v>
       </c>
       <c r="C4">
-        <v>0.1354418869832585</v>
+        <v>0.04861178352787476</v>
       </c>
       <c r="D4">
-        <v>0.1795038939382181</v>
+        <v>0.1922812381551466</v>
       </c>
       <c r="E4">
-        <v>0.144536060384965</v>
+        <v>0.1630856878434166</v>
       </c>
       <c r="F4">
-        <v>0.6915387480952688</v>
+        <v>1.367601088904337</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.2936292187948055</v>
+        <v>0.6663089519006924</v>
       </c>
       <c r="J4">
-        <v>0.1537396067453116</v>
+        <v>0.1797137774832862</v>
       </c>
       <c r="K4">
-        <v>0.8468457244846661</v>
+        <v>0.3489117275349543</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8078504311327812</v>
+        <v>1.560356193173863</v>
       </c>
       <c r="O4">
-        <v>1.54554120679316</v>
+        <v>3.276085227156884</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7220142561562852</v>
+        <v>0.3150300246392135</v>
       </c>
       <c r="C5">
-        <v>0.1298643446477854</v>
+        <v>0.04696859921641305</v>
       </c>
       <c r="D5">
-        <v>0.1731642604246559</v>
+        <v>0.1907957639144655</v>
       </c>
       <c r="E5">
-        <v>0.1397950071925216</v>
+        <v>0.1620683984033278</v>
       </c>
       <c r="F5">
-        <v>0.684312576384464</v>
+        <v>1.368376165317528</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.2946090434595305</v>
+        <v>0.6678525299136808</v>
       </c>
       <c r="J5">
-        <v>0.149023166371876</v>
+        <v>0.1787810027244845</v>
       </c>
       <c r="K5">
-        <v>0.8117704578127984</v>
+        <v>0.3386373740623299</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8175609974466962</v>
+        <v>1.564608957767444</v>
       </c>
       <c r="O5">
-        <v>1.539135365112074</v>
+        <v>3.280934500691359</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7168349214122713</v>
+        <v>0.3135170231802533</v>
       </c>
       <c r="C6">
-        <v>0.1289383982331742</v>
+        <v>0.04669576889911298</v>
       </c>
       <c r="D6">
-        <v>0.1721133527656065</v>
+        <v>0.1905504024506257</v>
       </c>
       <c r="E6">
-        <v>0.139009896535331</v>
+        <v>0.1619007699043742</v>
       </c>
       <c r="F6">
-        <v>0.6831305440994058</v>
+        <v>1.368515472839825</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.2947801978949904</v>
+        <v>0.6681137219911548</v>
       </c>
       <c r="J6">
-        <v>0.1482429111505397</v>
+        <v>0.1786276924288259</v>
       </c>
       <c r="K6">
-        <v>0.8059474066506596</v>
+        <v>0.3369321234714846</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8191877567621404</v>
+        <v>1.5653227579615</v>
       </c>
       <c r="O6">
-        <v>1.538115639800779</v>
+        <v>3.281765079315292</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7527913556338035</v>
+        <v>0.3240241912476733</v>
       </c>
       <c r="C7">
-        <v>0.1353666515394849</v>
+        <v>0.04858962173145187</v>
       </c>
       <c r="D7">
-        <v>0.1794182740791399</v>
+        <v>0.1922611174288278</v>
       </c>
       <c r="E7">
-        <v>0.1444719756774866</v>
+        <v>0.1630718817704775</v>
       </c>
       <c r="F7">
-        <v>0.6914400864038015</v>
+        <v>1.367610830882114</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.2936418628454405</v>
+        <v>0.6663294418489478</v>
       </c>
       <c r="J7">
-        <v>0.1536758018868056</v>
+        <v>0.1797010921065834</v>
       </c>
       <c r="K7">
-        <v>0.8463726017455144</v>
+        <v>0.348773110909292</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8079804272762399</v>
+        <v>1.560413035827921</v>
       </c>
       <c r="O7">
-        <v>1.545451847582612</v>
+        <v>3.276148926105691</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9116783701101951</v>
+        <v>0.37051683349614</v>
       </c>
       <c r="C8">
-        <v>0.1637770965068626</v>
+        <v>0.05694905091365854</v>
       </c>
       <c r="D8">
-        <v>0.2119322081780979</v>
+        <v>0.1999983296303753</v>
       </c>
       <c r="E8">
-        <v>0.1689067596849725</v>
+        <v>0.1684270822683018</v>
       </c>
       <c r="F8">
-        <v>0.7308069862343913</v>
+        <v>1.365159723253186</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.2898850017164847</v>
+        <v>0.659165397797068</v>
       </c>
       <c r="J8">
-        <v>0.1780997983021066</v>
+        <v>0.1846666810161821</v>
       </c>
       <c r="K8">
-        <v>1.025007999528299</v>
+        <v>0.4011365619078333</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7606459059171389</v>
+        <v>1.539856731467598</v>
       </c>
       <c r="O8">
-        <v>1.584444831903852</v>
+        <v>3.255051596255157</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.224734303250443</v>
+        <v>0.4621111582371782</v>
       </c>
       <c r="C9">
-        <v>0.2198044405540713</v>
+        <v>0.07334594469712385</v>
       </c>
       <c r="D9">
-        <v>0.2768987012890136</v>
+        <v>0.2158405835517385</v>
       </c>
       <c r="E9">
-        <v>0.218234244727455</v>
+        <v>0.179598810505432</v>
       </c>
       <c r="F9">
-        <v>0.8187458416028619</v>
+        <v>1.36588464142713</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.2874498673331622</v>
+        <v>0.6476667727051293</v>
       </c>
       <c r="J9">
-        <v>0.2278949251508209</v>
+        <v>0.1952257254458658</v>
       </c>
       <c r="K9">
-        <v>1.377021796137086</v>
+        <v>0.5041879994405747</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6758355176736881</v>
+        <v>1.50353100970562</v>
       </c>
       <c r="O9">
-        <v>1.6870582267602</v>
+        <v>3.226921202591569</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.456365292075446</v>
+        <v>0.5296417641420703</v>
       </c>
       <c r="C10">
-        <v>0.2613237280859124</v>
+        <v>0.08539309955045837</v>
       </c>
       <c r="D10">
-        <v>0.3255760586491618</v>
+        <v>0.2278837548161476</v>
       </c>
       <c r="E10">
-        <v>0.2555587410206641</v>
+        <v>0.1882137977710698</v>
       </c>
       <c r="F10">
-        <v>0.8909535431644997</v>
+        <v>1.369786322194969</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.2890480596856122</v>
+        <v>0.6407732323686659</v>
       </c>
       <c r="J10">
-        <v>0.2659261006936191</v>
+        <v>0.2034846020252132</v>
       </c>
       <c r="K10">
-        <v>1.637550139055605</v>
+        <v>0.5801020371219181</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6187941771442986</v>
+        <v>1.479269346664543</v>
       </c>
       <c r="O10">
-        <v>1.780760057873238</v>
+        <v>3.214325847330088</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.562267847272494</v>
+        <v>0.5604103722748448</v>
       </c>
       <c r="C11">
-        <v>0.2803287899039901</v>
+        <v>0.09087335768751359</v>
       </c>
       <c r="D11">
-        <v>0.3479761559542709</v>
+        <v>0.2334493591923064</v>
       </c>
       <c r="E11">
-        <v>0.2728269038599933</v>
+        <v>0.1922211330145558</v>
       </c>
       <c r="F11">
-        <v>0.9257014557067009</v>
+        <v>1.372292362265952</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.2906003719014869</v>
+        <v>0.6379747378997713</v>
       </c>
       <c r="J11">
-        <v>0.2836101003605052</v>
+        <v>0.2073507274521376</v>
       </c>
       <c r="K11">
-        <v>1.75669089862177</v>
+        <v>0.6146770701683977</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5940793065985961</v>
+        <v>1.468758513699685</v>
       </c>
       <c r="O11">
-        <v>1.827924572237777</v>
+        <v>3.210348869711225</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.602462047397324</v>
+        <v>0.5720681318272511</v>
       </c>
       <c r="C12">
-        <v>0.287545928343576</v>
+        <v>0.09294852142045329</v>
       </c>
       <c r="D12">
-        <v>0.35649973088465</v>
+        <v>0.2355693324524424</v>
       </c>
       <c r="E12">
-        <v>0.2794121307471542</v>
+        <v>0.1937512639851064</v>
       </c>
       <c r="F12">
-        <v>0.9391549123977825</v>
+        <v>1.373346389085185</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2913148709051683</v>
+        <v>0.6369635425223805</v>
       </c>
       <c r="J12">
-        <v>0.2903677598070118</v>
+        <v>0.2088304059642212</v>
       </c>
       <c r="K12">
-        <v>1.801914255675257</v>
+        <v>0.6277751624267864</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5849060253569895</v>
+        <v>1.464853953951714</v>
       </c>
       <c r="O12">
-        <v>1.846487219260524</v>
+        <v>3.209094898844285</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.593801206739784</v>
+        <v>0.5695571521418117</v>
       </c>
       <c r="C13">
-        <v>0.2859906270354031</v>
+        <v>0.09250160316241818</v>
       </c>
       <c r="D13">
-        <v>0.3546621257740412</v>
+        <v>0.2351122088101789</v>
       </c>
       <c r="E13">
-        <v>0.2779917555543534</v>
+        <v>0.1934211617280255</v>
       </c>
       <c r="F13">
-        <v>0.9362439769807338</v>
+        <v>1.373114715202178</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.2911552240766184</v>
+        <v>0.6371791627590575</v>
       </c>
       <c r="J13">
-        <v>0.2889095593531152</v>
+        <v>0.208511034702255</v>
       </c>
       <c r="K13">
-        <v>1.792169531227842</v>
+        <v>0.6249540298429679</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5868732580991356</v>
+        <v>1.465691504918897</v>
       </c>
       <c r="O13">
-        <v>1.842457350575472</v>
+        <v>3.209353755284212</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.565572732930633</v>
+        <v>0.5613693394224981</v>
       </c>
       <c r="C14">
-        <v>0.2809221202576282</v>
+        <v>0.09104408496017413</v>
       </c>
       <c r="D14">
-        <v>0.3486765456021317</v>
+        <v>0.2336235228827803</v>
       </c>
       <c r="E14">
-        <v>0.2733677222028632</v>
+        <v>0.1923467648424051</v>
       </c>
       <c r="F14">
-        <v>0.9268022331286403</v>
+        <v>1.372376972992711</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.2906565678085755</v>
+        <v>0.6378905734765397</v>
       </c>
       <c r="J14">
-        <v>0.2841647965816776</v>
+        <v>0.2074721478071808</v>
       </c>
       <c r="K14">
-        <v>1.760409195740749</v>
+        <v>0.6157545561658253</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5933208438611643</v>
+        <v>1.468435766561035</v>
       </c>
       <c r="O14">
-        <v>1.829437356970914</v>
+        <v>3.21024065391228</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.548294306933116</v>
+        <v>0.5563548765942699</v>
       </c>
       <c r="C15">
-        <v>0.2778202671454721</v>
+        <v>0.09015129863735183</v>
       </c>
       <c r="D15">
-        <v>0.3450156943036831</v>
+        <v>0.2327132708265509</v>
       </c>
       <c r="E15">
-        <v>0.270541519422089</v>
+        <v>0.1916903099842173</v>
       </c>
       <c r="F15">
-        <v>0.9210580085994735</v>
+        <v>1.371938761593682</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.2903678690828499</v>
+        <v>0.6383326540356471</v>
       </c>
       <c r="J15">
-        <v>0.2812666354296027</v>
+        <v>0.2068378381538878</v>
       </c>
       <c r="K15">
-        <v>1.740969591201406</v>
+        <v>0.6101202803369858</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5972946166074315</v>
+        <v>1.470126560991559</v>
       </c>
       <c r="O15">
-        <v>1.821555250625124</v>
+        <v>3.210816725511194</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.449456252754885</v>
+        <v>0.5276318870486421</v>
       </c>
       <c r="C16">
-        <v>0.2600843567172433</v>
+        <v>0.08503494359366925</v>
       </c>
       <c r="D16">
-        <v>0.3241176789517652</v>
+        <v>0.2275217715028219</v>
       </c>
       <c r="E16">
-        <v>0.25443642729347</v>
+        <v>0.1879536811858245</v>
       </c>
       <c r="F16">
-        <v>0.8887227645127922</v>
+        <v>1.36963725108059</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.2889638912357135</v>
+        <v>0.6409629113745865</v>
       </c>
       <c r="J16">
-        <v>0.2647786268718448</v>
+        <v>0.2032341348127034</v>
       </c>
       <c r="K16">
-        <v>1.629778051781415</v>
+        <v>0.577843252385037</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6204348733227665</v>
+        <v>1.479966840348698</v>
       </c>
       <c r="O16">
-        <v>1.777773262209479</v>
+        <v>3.214621020069927</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.388968770565185</v>
+        <v>0.5100232599679657</v>
       </c>
       <c r="C17">
-        <v>0.2492364444532882</v>
+        <v>0.08189615255064098</v>
       </c>
       <c r="D17">
-        <v>0.3113660655978521</v>
+        <v>0.2243591750662972</v>
       </c>
       <c r="E17">
-        <v>0.2446336745798305</v>
+        <v>0.185683960796851</v>
       </c>
       <c r="F17">
-        <v>0.8693879889100913</v>
+        <v>1.368412546196566</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.2883195017854661</v>
+        <v>0.6426629184693482</v>
       </c>
       <c r="J17">
-        <v>0.2547660977674013</v>
+        <v>0.2010513063255104</v>
       </c>
       <c r="K17">
-        <v>1.561737769591531</v>
+        <v>0.55805245742377</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6349523644919817</v>
+        <v>1.486138259767516</v>
       </c>
       <c r="O17">
-        <v>1.75211137259268</v>
+        <v>3.217403733728872</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.354227151491841</v>
+        <v>0.4998998553977003</v>
       </c>
       <c r="C18">
-        <v>0.2430078745870361</v>
+        <v>0.08009080296254467</v>
       </c>
       <c r="D18">
-        <v>0.3040555488807684</v>
+        <v>0.2225483395656624</v>
       </c>
       <c r="E18">
-        <v>0.2390223063511172</v>
+        <v>0.1843867958557226</v>
       </c>
       <c r="F18">
-        <v>0.8584446037975226</v>
+        <v>1.367776952909907</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.2880260375806678</v>
+        <v>0.6436724754996277</v>
       </c>
       <c r="J18">
-        <v>0.2490428645767366</v>
+        <v>0.1998060739735763</v>
       </c>
       <c r="K18">
-        <v>1.522660519514488</v>
+        <v>0.5466732483197063</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6434180174274697</v>
+        <v>1.489737396549733</v>
       </c>
       <c r="O18">
-        <v>1.737775403944056</v>
+        <v>3.219169251472636</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.342472254001109</v>
+        <v>0.4964730559458417</v>
       </c>
       <c r="C19">
-        <v>0.2409007539582291</v>
+        <v>0.07947954515535116</v>
       </c>
       <c r="D19">
-        <v>0.3015843087909928</v>
+        <v>0.2219366350556697</v>
       </c>
       <c r="E19">
-        <v>0.2371268816846523</v>
+        <v>0.1839490286439656</v>
       </c>
       <c r="F19">
-        <v>0.854769197141394</v>
+        <v>1.367573575488976</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.2879396945660666</v>
+        <v>0.6440197481798648</v>
       </c>
       <c r="J19">
-        <v>0.2471110336517768</v>
+        <v>0.1993862249974114</v>
       </c>
       <c r="K19">
-        <v>1.509439036449777</v>
+        <v>0.5428211394767004</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6463039472022487</v>
+        <v>1.49096450290655</v>
       </c>
       <c r="O19">
-        <v>1.732992863171916</v>
+        <v>3.219795360381255</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.395402573569413</v>
+        <v>0.511897255638786</v>
       </c>
       <c r="C20">
-        <v>0.250390075188804</v>
+        <v>0.08223028281921074</v>
       </c>
       <c r="D20">
-        <v>0.312720995802465</v>
+        <v>0.2246949904443341</v>
       </c>
       <c r="E20">
-        <v>0.2456743764414711</v>
+        <v>0.1859247159553234</v>
       </c>
       <c r="F20">
-        <v>0.8714276874933375</v>
+        <v>1.368535795716113</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.2883800548836675</v>
+        <v>0.6424786628826133</v>
       </c>
       <c r="J20">
-        <v>0.2558282108690264</v>
+        <v>0.2012826091638971</v>
       </c>
       <c r="K20">
-        <v>1.568974677541092</v>
+        <v>0.560158819159625</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.633394932471294</v>
+        <v>1.485476178347508</v>
       </c>
       <c r="O20">
-        <v>1.754798884814761</v>
+        <v>3.217090434967503</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.573861522930372</v>
+        <v>0.5637741310530942</v>
       </c>
       <c r="C21">
-        <v>0.2824102832515791</v>
+        <v>0.09147219652447802</v>
       </c>
       <c r="D21">
-        <v>0.3504335036052026</v>
+        <v>0.2340604505081956</v>
       </c>
       <c r="E21">
-        <v>0.2747246223699022</v>
+        <v>0.1926619987015599</v>
       </c>
       <c r="F21">
-        <v>0.9295673091866092</v>
+        <v>1.372590815655954</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.2907995310826728</v>
+        <v>0.637680297597381</v>
       </c>
       <c r="J21">
-        <v>0.2855567401666548</v>
+        <v>0.2077768692914361</v>
       </c>
       <c r="K21">
-        <v>1.769734917662703</v>
+        <v>0.6184565266871118</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5914219226839528</v>
+        <v>1.467627656563657</v>
       </c>
       <c r="O21">
-        <v>1.833242166789063</v>
+        <v>3.209973310532718</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.691033912187294</v>
+        <v>0.5977154184745359</v>
       </c>
       <c r="C22">
-        <v>0.3034576366372619</v>
+        <v>0.09751175168548798</v>
       </c>
       <c r="D22">
-        <v>0.375322812063871</v>
+        <v>0.2402535361436264</v>
       </c>
       <c r="E22">
-        <v>0.2939819800472065</v>
+        <v>0.1971388493435455</v>
       </c>
       <c r="F22">
-        <v>0.9692966734465358</v>
+        <v>1.375853237375367</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.2931232325374502</v>
+        <v>0.6348271869941691</v>
       </c>
       <c r="J22">
-        <v>0.305345339204635</v>
+        <v>0.2121125117478044</v>
       </c>
       <c r="K22">
-        <v>1.901578014254113</v>
+        <v>0.6565878997141397</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.565076812064925</v>
+        <v>1.456403666381473</v>
       </c>
       <c r="O22">
-        <v>1.888629448663437</v>
+        <v>3.206790841747448</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.628442357076182</v>
+        <v>0.5795971610617414</v>
       </c>
       <c r="C23">
-        <v>0.2922120658060123</v>
+        <v>0.09428840715568754</v>
       </c>
       <c r="D23">
-        <v>0.3620152943051238</v>
+        <v>0.2369416037177388</v>
       </c>
       <c r="E23">
-        <v>0.2836775416764681</v>
+        <v>0.1947427518873752</v>
       </c>
       <c r="F23">
-        <v>0.9479262770753536</v>
+        <v>1.374056033488785</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2918123166851103</v>
+        <v>0.6363240558295686</v>
       </c>
       <c r="J23">
-        <v>0.2947488329097041</v>
+        <v>0.2097901570260063</v>
       </c>
       <c r="K23">
-        <v>1.831146697116878</v>
+        <v>0.6362339033010187</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5790353706413924</v>
+        <v>1.462353751773639</v>
       </c>
       <c r="O23">
-        <v>1.858673905211475</v>
+        <v>3.208354977809051</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.392493748166203</v>
+        <v>0.5110500220557697</v>
       </c>
       <c r="C24">
-        <v>0.2498684939466784</v>
+        <v>0.08207922506306886</v>
       </c>
       <c r="D24">
-        <v>0.3121083681488699</v>
+        <v>0.2245431453049065</v>
       </c>
       <c r="E24">
-        <v>0.2452037995813754</v>
+        <v>0.1858158464738082</v>
       </c>
       <c r="F24">
-        <v>0.8705050043079012</v>
+        <v>1.368479861209806</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.2883524395768013</v>
+        <v>0.6425618645320483</v>
       </c>
       <c r="J24">
-        <v>0.255347926873867</v>
+        <v>0.2011780069197755</v>
       </c>
       <c r="K24">
-        <v>1.565702748124608</v>
+        <v>0.5592065367606835</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6340986763507406</v>
+        <v>1.48577534616779</v>
       </c>
       <c r="O24">
-        <v>1.753582564174906</v>
+        <v>3.217231561193302</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.139813791122464</v>
+        <v>0.4372894424898561</v>
       </c>
       <c r="C25">
-        <v>0.2045976179035733</v>
+        <v>0.06890993377341204</v>
       </c>
       <c r="D25">
-        <v>0.2591733465319521</v>
+        <v>0.2114835960724122</v>
       </c>
       <c r="E25">
-        <v>0.2047165492109926</v>
+        <v>0.1765049615752403</v>
       </c>
       <c r="F25">
-        <v>0.7937014849819306</v>
+        <v>1.365096661230687</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.2875426882633789</v>
+        <v>0.6505044641944693</v>
       </c>
       <c r="J25">
-        <v>0.2141919245271424</v>
+        <v>0.1922812386368378</v>
       </c>
       <c r="K25">
-        <v>1.281524126416798</v>
+        <v>0.4762728017313123</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6978829437754452</v>
+        <v>1.512931723578509</v>
       </c>
       <c r="O25">
-        <v>1.656263105608218</v>
+        <v>3.233113664549307</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_175/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_175/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3831433893464293</v>
+        <v>0.9548035149301484</v>
       </c>
       <c r="C2">
-        <v>0.05921439310084509</v>
+        <v>0.1714904899177299</v>
       </c>
       <c r="D2">
-        <v>0.2021402031681134</v>
+        <v>0.2208161341331305</v>
       </c>
       <c r="E2">
-        <v>0.1699234821611597</v>
+        <v>0.1756150210158935</v>
       </c>
       <c r="F2">
-        <v>1.364870054439962</v>
+        <v>0.7421634586297756</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.6573968767895586</v>
+        <v>0.2891875016342595</v>
       </c>
       <c r="J2">
-        <v>0.186067691903574</v>
+        <v>0.1848359447104002</v>
       </c>
       <c r="K2">
-        <v>0.4153500648292834</v>
+        <v>1.073494979571734</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.534556796755314</v>
+        <v>0.7483494147297218</v>
       </c>
       <c r="O2">
-        <v>3.250231393374804</v>
+        <v>1.596696486591753</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.346556099387044</v>
+        <v>0.8298239992022047</v>
       </c>
       <c r="C3">
-        <v>0.05264474798234176</v>
+        <v>0.1491394858537376</v>
       </c>
       <c r="D3">
-        <v>0.1959791953396888</v>
+        <v>0.1951367682240033</v>
       </c>
       <c r="E3">
-        <v>0.1656344628850945</v>
+        <v>0.1562607455218057</v>
       </c>
       <c r="F3">
-        <v>1.366129896015096</v>
+        <v>0.7100145212248563</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.6627194558780936</v>
+        <v>0.2915746615965951</v>
       </c>
       <c r="J3">
-        <v>0.1820667567137662</v>
+        <v>0.1654361870770771</v>
       </c>
       <c r="K3">
-        <v>0.3741560588014181</v>
+        <v>0.9329789936017789</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.550230229227868</v>
+        <v>0.7846099228268262</v>
       </c>
       <c r="O3">
-        <v>3.265215660862069</v>
+        <v>1.563085860047764</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3241472087430566</v>
+        <v>0.7532121784363142</v>
       </c>
       <c r="C4">
-        <v>0.04861178352787476</v>
+        <v>0.1354418869834717</v>
       </c>
       <c r="D4">
-        <v>0.1922812381551466</v>
+        <v>0.1795038939381044</v>
       </c>
       <c r="E4">
-        <v>0.1630856878434166</v>
+        <v>0.1445360603849615</v>
       </c>
       <c r="F4">
-        <v>1.367601088904337</v>
+        <v>0.6915387480952759</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.6663089519006924</v>
+        <v>0.2936292187948233</v>
       </c>
       <c r="J4">
-        <v>0.1797137774832862</v>
+        <v>0.1537396067453543</v>
       </c>
       <c r="K4">
-        <v>0.3489117275349543</v>
+        <v>0.8468457244846945</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.560356193173863</v>
+        <v>0.8078504311328345</v>
       </c>
       <c r="O4">
-        <v>3.276085227156884</v>
+        <v>1.545541206793217</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3150300246392135</v>
+        <v>0.7220142561562852</v>
       </c>
       <c r="C5">
-        <v>0.04696859921641305</v>
+        <v>0.1298643446477854</v>
       </c>
       <c r="D5">
-        <v>0.1907957639144655</v>
+        <v>0.1731642604247412</v>
       </c>
       <c r="E5">
-        <v>0.1620683984033278</v>
+        <v>0.1397950071924967</v>
       </c>
       <c r="F5">
-        <v>1.368376165317528</v>
+        <v>0.6843125763844427</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.6678525299136808</v>
+        <v>0.2946090434595163</v>
       </c>
       <c r="J5">
-        <v>0.1787810027244845</v>
+        <v>0.1490231663718475</v>
       </c>
       <c r="K5">
-        <v>0.3386373740623299</v>
+        <v>0.81177045781277</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.564608957767444</v>
+        <v>0.817560997446682</v>
       </c>
       <c r="O5">
-        <v>3.280934500691359</v>
+        <v>1.539135365112045</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3135170231802533</v>
+        <v>0.7168349214124135</v>
       </c>
       <c r="C6">
-        <v>0.04669576889911298</v>
+        <v>0.12893839823316</v>
       </c>
       <c r="D6">
-        <v>0.1905504024506257</v>
+        <v>0.1721133527655923</v>
       </c>
       <c r="E6">
-        <v>0.1619007699043742</v>
+        <v>0.139009896535299</v>
       </c>
       <c r="F6">
-        <v>1.368515472839825</v>
+        <v>0.6831305440993987</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.6681137219911548</v>
+        <v>0.2947801978949869</v>
       </c>
       <c r="J6">
-        <v>0.1786276924288259</v>
+        <v>0.1482429111504757</v>
       </c>
       <c r="K6">
-        <v>0.3369321234714846</v>
+        <v>0.8059474066505459</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.5653227579615</v>
+        <v>0.8191877567620853</v>
       </c>
       <c r="O6">
-        <v>3.281765079315292</v>
+        <v>1.538115639800765</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3240241912476733</v>
+        <v>0.7527913556340309</v>
       </c>
       <c r="C7">
-        <v>0.04858962173145187</v>
+        <v>0.1353666515394849</v>
       </c>
       <c r="D7">
-        <v>0.1922611174288278</v>
+        <v>0.1794182740788131</v>
       </c>
       <c r="E7">
-        <v>0.1630718817704775</v>
+        <v>0.144471975677483</v>
       </c>
       <c r="F7">
-        <v>1.367610830882114</v>
+        <v>0.6914400864037873</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.6663294418489478</v>
+        <v>0.2936418628454334</v>
       </c>
       <c r="J7">
-        <v>0.1797010921065834</v>
+        <v>0.1536758018868625</v>
       </c>
       <c r="K7">
-        <v>0.348773110909292</v>
+        <v>0.8463726017455144</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.560413035827921</v>
+        <v>0.8079804272762949</v>
       </c>
       <c r="O7">
-        <v>3.276148926105691</v>
+        <v>1.54545184758247</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.37051683349614</v>
+        <v>0.9116783701102236</v>
       </c>
       <c r="C8">
-        <v>0.05694905091365854</v>
+        <v>0.1637770965070757</v>
       </c>
       <c r="D8">
-        <v>0.1999983296303753</v>
+        <v>0.21193220817824</v>
       </c>
       <c r="E8">
-        <v>0.1684270822683018</v>
+        <v>0.1689067596849583</v>
       </c>
       <c r="F8">
-        <v>1.365159723253186</v>
+        <v>0.73080698623437</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.659165397797068</v>
+        <v>0.289885001716474</v>
       </c>
       <c r="J8">
-        <v>0.1846666810161821</v>
+        <v>0.1780997983022417</v>
       </c>
       <c r="K8">
-        <v>0.4011365619078333</v>
+        <v>1.025007999528356</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.539856731467598</v>
+        <v>0.7606459059171211</v>
       </c>
       <c r="O8">
-        <v>3.255051596255157</v>
+        <v>1.584444831903767</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4621111582371782</v>
+        <v>1.224734303250301</v>
       </c>
       <c r="C9">
-        <v>0.07334594469712385</v>
+        <v>0.2198044405542419</v>
       </c>
       <c r="D9">
-        <v>0.2158405835517385</v>
+        <v>0.2768987012891699</v>
       </c>
       <c r="E9">
-        <v>0.179598810505432</v>
+        <v>0.2182342447274266</v>
       </c>
       <c r="F9">
-        <v>1.36588464142713</v>
+        <v>0.8187458416028619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.6476667727051293</v>
+        <v>0.2874498673331729</v>
       </c>
       <c r="J9">
-        <v>0.1952257254458658</v>
+        <v>0.2278949251509204</v>
       </c>
       <c r="K9">
-        <v>0.5041879994405747</v>
+        <v>1.377021796136887</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.50353100970562</v>
+        <v>0.6758355176736828</v>
       </c>
       <c r="O9">
-        <v>3.226921202591569</v>
+        <v>1.687058226760143</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5296417641420703</v>
+        <v>1.456365292075418</v>
       </c>
       <c r="C10">
-        <v>0.08539309955045837</v>
+        <v>0.2613237280862251</v>
       </c>
       <c r="D10">
-        <v>0.2278837548161476</v>
+        <v>0.3255760586493466</v>
       </c>
       <c r="E10">
-        <v>0.1882137977710698</v>
+        <v>0.2555587410206499</v>
       </c>
       <c r="F10">
-        <v>1.369786322194969</v>
+        <v>0.8909535431644997</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.6407732323686659</v>
+        <v>0.2890480596856122</v>
       </c>
       <c r="J10">
-        <v>0.2034846020252132</v>
+        <v>0.2659261006935765</v>
       </c>
       <c r="K10">
-        <v>0.5801020371219181</v>
+        <v>1.637550139055605</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.479269346664543</v>
+        <v>0.6187941771442809</v>
       </c>
       <c r="O10">
-        <v>3.214325847330088</v>
+        <v>1.780760057873238</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5604103722748448</v>
+        <v>1.562267847272466</v>
       </c>
       <c r="C11">
-        <v>0.09087335768751359</v>
+        <v>0.2803287899036775</v>
       </c>
       <c r="D11">
-        <v>0.2334493591923064</v>
+        <v>0.3479761559542993</v>
       </c>
       <c r="E11">
-        <v>0.1922211330145558</v>
+        <v>0.2728269038600004</v>
       </c>
       <c r="F11">
-        <v>1.372292362265952</v>
+        <v>0.9257014557067009</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.6379747378997713</v>
+        <v>0.2906003719014763</v>
       </c>
       <c r="J11">
-        <v>0.2073507274521376</v>
+        <v>0.283610100360562</v>
       </c>
       <c r="K11">
-        <v>0.6146770701683977</v>
+        <v>1.756690898621542</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.468758513699685</v>
+        <v>0.5940793065985233</v>
       </c>
       <c r="O11">
-        <v>3.210348869711225</v>
+        <v>1.827924572237748</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5720681318272511</v>
+        <v>1.602462047397324</v>
       </c>
       <c r="C12">
-        <v>0.09294852142045329</v>
+        <v>0.287545928343377</v>
       </c>
       <c r="D12">
-        <v>0.2355693324524424</v>
+        <v>0.3564997308846074</v>
       </c>
       <c r="E12">
-        <v>0.1937512639851064</v>
+        <v>0.2794121307471613</v>
       </c>
       <c r="F12">
-        <v>1.373346389085185</v>
+        <v>0.9391549123977825</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.6369635425223805</v>
+        <v>0.2913148709051683</v>
       </c>
       <c r="J12">
-        <v>0.2088304059642212</v>
+        <v>0.2903677598070118</v>
       </c>
       <c r="K12">
-        <v>0.6277751624267864</v>
+        <v>1.801914255675172</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.464853953951714</v>
+        <v>0.5849060253569895</v>
       </c>
       <c r="O12">
-        <v>3.209094898844285</v>
+        <v>1.846487219260439</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5695571521418117</v>
+        <v>1.593801206739641</v>
       </c>
       <c r="C13">
-        <v>0.09250160316241818</v>
+        <v>0.2859906270350905</v>
       </c>
       <c r="D13">
-        <v>0.2351122088101789</v>
+        <v>0.354662125774027</v>
       </c>
       <c r="E13">
-        <v>0.1934211617280255</v>
+        <v>0.2779917555543392</v>
       </c>
       <c r="F13">
-        <v>1.373114715202178</v>
+        <v>0.9362439769807338</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.6371791627590575</v>
+        <v>0.2911552240766255</v>
       </c>
       <c r="J13">
-        <v>0.208511034702255</v>
+        <v>0.2889095593531437</v>
       </c>
       <c r="K13">
-        <v>0.6249540298429679</v>
+        <v>1.792169531227984</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.465691504918897</v>
+        <v>0.5868732580992138</v>
       </c>
       <c r="O13">
-        <v>3.209353755284212</v>
+        <v>1.842457350575529</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5613693394224981</v>
+        <v>1.565572732930633</v>
       </c>
       <c r="C14">
-        <v>0.09104408496017413</v>
+        <v>0.2809221202576282</v>
       </c>
       <c r="D14">
-        <v>0.2336235228827803</v>
+        <v>0.3486765456021317</v>
       </c>
       <c r="E14">
-        <v>0.1923467648424051</v>
+        <v>0.2733677222028561</v>
       </c>
       <c r="F14">
-        <v>1.372376972992711</v>
+        <v>0.9268022331286545</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.6378905734765397</v>
+        <v>0.290656567808572</v>
       </c>
       <c r="J14">
-        <v>0.2074721478071808</v>
+        <v>0.2841647965817629</v>
       </c>
       <c r="K14">
-        <v>0.6157545561658253</v>
+        <v>1.760409195740806</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.468435766561035</v>
+        <v>0.5933208438610986</v>
       </c>
       <c r="O14">
-        <v>3.21024065391228</v>
+        <v>1.829437356970885</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5563548765942699</v>
+        <v>1.548294306933116</v>
       </c>
       <c r="C15">
-        <v>0.09015129863735183</v>
+        <v>0.2778202671453585</v>
       </c>
       <c r="D15">
-        <v>0.2327132708265509</v>
+        <v>0.3450156943037541</v>
       </c>
       <c r="E15">
-        <v>0.1916903099842173</v>
+        <v>0.2705415194220819</v>
       </c>
       <c r="F15">
-        <v>1.371938761593682</v>
+        <v>0.9210580085994735</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.6383326540356471</v>
+        <v>0.2903678690828428</v>
       </c>
       <c r="J15">
-        <v>0.2068378381538878</v>
+        <v>0.2812666354295033</v>
       </c>
       <c r="K15">
-        <v>0.6101202803369858</v>
+        <v>1.740969591201463</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.470126560991559</v>
+        <v>0.5972946166074848</v>
       </c>
       <c r="O15">
-        <v>3.210816725511194</v>
+        <v>1.821555250625153</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5276318870486421</v>
+        <v>1.449456252754743</v>
       </c>
       <c r="C16">
-        <v>0.08503494359366925</v>
+        <v>0.2600843567168454</v>
       </c>
       <c r="D16">
-        <v>0.2275217715028219</v>
+        <v>0.3241176789519074</v>
       </c>
       <c r="E16">
-        <v>0.1879536811858245</v>
+        <v>0.2544364272934345</v>
       </c>
       <c r="F16">
-        <v>1.36963725108059</v>
+        <v>0.8887227645128064</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.6409629113745865</v>
+        <v>0.2889638912357277</v>
       </c>
       <c r="J16">
-        <v>0.2032341348127034</v>
+        <v>0.2647786268719159</v>
       </c>
       <c r="K16">
-        <v>0.577843252385037</v>
+        <v>1.6297780517815</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.479966840348698</v>
+        <v>0.620434873322754</v>
       </c>
       <c r="O16">
-        <v>3.214621020069927</v>
+        <v>1.77777326220945</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5100232599679657</v>
+        <v>1.38896877056527</v>
       </c>
       <c r="C17">
-        <v>0.08189615255064098</v>
+        <v>0.2492364444536008</v>
       </c>
       <c r="D17">
-        <v>0.2243591750662972</v>
+        <v>0.3113660655979658</v>
       </c>
       <c r="E17">
-        <v>0.185683960796851</v>
+        <v>0.2446336745798305</v>
       </c>
       <c r="F17">
-        <v>1.368412546196566</v>
+        <v>0.8693879889101055</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.6426629184693482</v>
+        <v>0.2883195017854732</v>
       </c>
       <c r="J17">
-        <v>0.2010513063255104</v>
+        <v>0.2547660977674155</v>
       </c>
       <c r="K17">
-        <v>0.55805245742377</v>
+        <v>1.561737769591474</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.486138259767516</v>
+        <v>0.6349523644919302</v>
       </c>
       <c r="O17">
-        <v>3.217403733728872</v>
+        <v>1.752111372592623</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4998998553977003</v>
+        <v>1.354227151491841</v>
       </c>
       <c r="C18">
-        <v>0.08009080296254467</v>
+        <v>0.2430078745865529</v>
       </c>
       <c r="D18">
-        <v>0.2225483395656624</v>
+        <v>0.3040555488807399</v>
       </c>
       <c r="E18">
-        <v>0.1843867958557226</v>
+        <v>0.2390223063511172</v>
       </c>
       <c r="F18">
-        <v>1.367776952909907</v>
+        <v>0.8584446037975368</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.6436724754996277</v>
+        <v>0.2880260375806714</v>
       </c>
       <c r="J18">
-        <v>0.1998060739735763</v>
+        <v>0.2490428645766798</v>
       </c>
       <c r="K18">
-        <v>0.5466732483197063</v>
+        <v>1.52266051951446</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.489737396549733</v>
+        <v>0.6434180174274644</v>
       </c>
       <c r="O18">
-        <v>3.219169251472636</v>
+        <v>1.737775403944028</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4964730559458417</v>
+        <v>1.342472254000938</v>
       </c>
       <c r="C19">
-        <v>0.07947954515535116</v>
+        <v>0.2409007539580728</v>
       </c>
       <c r="D19">
-        <v>0.2219366350556697</v>
+        <v>0.3015843087911065</v>
       </c>
       <c r="E19">
-        <v>0.1839490286439656</v>
+        <v>0.237126881684631</v>
       </c>
       <c r="F19">
-        <v>1.367573575488976</v>
+        <v>0.8547691971413798</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.6440197481798648</v>
+        <v>0.2879396945660631</v>
       </c>
       <c r="J19">
-        <v>0.1993862249974114</v>
+        <v>0.2471110336517626</v>
       </c>
       <c r="K19">
-        <v>0.5428211394767004</v>
+        <v>1.509439036449749</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.49096450290655</v>
+        <v>0.6463039472021652</v>
       </c>
       <c r="O19">
-        <v>3.219795360381255</v>
+        <v>1.732992863171859</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.511897255638786</v>
+        <v>1.395402573569555</v>
       </c>
       <c r="C20">
-        <v>0.08223028281921074</v>
+        <v>0.2503900751891166</v>
       </c>
       <c r="D20">
-        <v>0.2246949904443341</v>
+        <v>0.3127209958023371</v>
       </c>
       <c r="E20">
-        <v>0.1859247159553234</v>
+        <v>0.2456743764414639</v>
       </c>
       <c r="F20">
-        <v>1.368535795716113</v>
+        <v>0.8714276874933375</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.6424786628826133</v>
+        <v>0.2883800548836639</v>
       </c>
       <c r="J20">
-        <v>0.2012826091638971</v>
+        <v>0.2558282108689838</v>
       </c>
       <c r="K20">
-        <v>0.560158819159625</v>
+        <v>1.568974677541121</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.485476178347508</v>
+        <v>0.6333949324713437</v>
       </c>
       <c r="O20">
-        <v>3.217090434967503</v>
+        <v>1.75479888481479</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5637741310530942</v>
+        <v>1.57386152293023</v>
       </c>
       <c r="C21">
-        <v>0.09147219652447802</v>
+        <v>0.2824102832515791</v>
       </c>
       <c r="D21">
-        <v>0.2340604505081956</v>
+        <v>0.350433503605359</v>
       </c>
       <c r="E21">
-        <v>0.1926619987015599</v>
+        <v>0.2747246223699094</v>
       </c>
       <c r="F21">
-        <v>1.372590815655954</v>
+        <v>0.9295673091866234</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.637680297597381</v>
+        <v>0.290799531082655</v>
       </c>
       <c r="J21">
-        <v>0.2077768692914361</v>
+        <v>0.2855567401666548</v>
       </c>
       <c r="K21">
-        <v>0.6184565266871118</v>
+        <v>1.769734917662817</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.467627656563657</v>
+        <v>0.5914219226838942</v>
       </c>
       <c r="O21">
-        <v>3.209973310532718</v>
+        <v>1.83324216678912</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5977154184745359</v>
+        <v>1.691033912187379</v>
       </c>
       <c r="C22">
-        <v>0.09751175168548798</v>
+        <v>0.3034576366370345</v>
       </c>
       <c r="D22">
-        <v>0.2402535361436264</v>
+        <v>0.375322812063871</v>
       </c>
       <c r="E22">
-        <v>0.1971388493435455</v>
+        <v>0.2939819800471994</v>
       </c>
       <c r="F22">
-        <v>1.375853237375367</v>
+        <v>0.9692966734465358</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.6348271869941691</v>
+        <v>0.2931232325374644</v>
       </c>
       <c r="J22">
-        <v>0.2121125117478044</v>
+        <v>0.3053453392047061</v>
       </c>
       <c r="K22">
-        <v>0.6565878997141397</v>
+        <v>1.901578014254113</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.456403666381473</v>
+        <v>0.5650768120649197</v>
       </c>
       <c r="O22">
-        <v>3.206790841747448</v>
+        <v>1.888629448663437</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5795971610617414</v>
+        <v>1.628442357076295</v>
       </c>
       <c r="C23">
-        <v>0.09428840715568754</v>
+        <v>0.2922120658062397</v>
       </c>
       <c r="D23">
-        <v>0.2369416037177388</v>
+        <v>0.362015294305138</v>
       </c>
       <c r="E23">
-        <v>0.1947427518873752</v>
+        <v>0.2836775416764681</v>
       </c>
       <c r="F23">
-        <v>1.374056033488785</v>
+        <v>0.9479262770753678</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.6363240558295686</v>
+        <v>0.2918123166851174</v>
       </c>
       <c r="J23">
-        <v>0.2097901570260063</v>
+        <v>0.2947488329096899</v>
       </c>
       <c r="K23">
-        <v>0.6362339033010187</v>
+        <v>1.831146697116907</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.462353751773639</v>
+        <v>0.579035370641396</v>
       </c>
       <c r="O23">
-        <v>3.208354977809051</v>
+        <v>1.858673905211532</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5110500220557697</v>
+        <v>1.392493748166288</v>
       </c>
       <c r="C24">
-        <v>0.08207922506306886</v>
+        <v>0.2498684939466358</v>
       </c>
       <c r="D24">
-        <v>0.2245431453049065</v>
+        <v>0.3121083681489836</v>
       </c>
       <c r="E24">
-        <v>0.1858158464738082</v>
+        <v>0.2452037995813825</v>
       </c>
       <c r="F24">
-        <v>1.368479861209806</v>
+        <v>0.870505004307887</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.6425618645320483</v>
+        <v>0.2883524395767836</v>
       </c>
       <c r="J24">
-        <v>0.2011780069197755</v>
+        <v>0.2553479268738101</v>
       </c>
       <c r="K24">
-        <v>0.5592065367606835</v>
+        <v>1.565702748124608</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.48577534616779</v>
+        <v>0.6340986763507406</v>
       </c>
       <c r="O24">
-        <v>3.217231561193302</v>
+        <v>1.753582564174906</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4372894424898561</v>
+        <v>1.139813791122606</v>
       </c>
       <c r="C25">
-        <v>0.06890993377341204</v>
+        <v>0.2045976179034312</v>
       </c>
       <c r="D25">
-        <v>0.2114835960724122</v>
+        <v>0.2591733465318384</v>
       </c>
       <c r="E25">
-        <v>0.1765049615752403</v>
+        <v>0.2047165492109855</v>
       </c>
       <c r="F25">
-        <v>1.365096661230687</v>
+        <v>0.7937014849819377</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.6505044641944693</v>
+        <v>0.287542688263386</v>
       </c>
       <c r="J25">
-        <v>0.1922812386368378</v>
+        <v>0.2141919245271282</v>
       </c>
       <c r="K25">
-        <v>0.4762728017313123</v>
+        <v>1.281524126416713</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.512931723578509</v>
+        <v>0.6978829437753866</v>
       </c>
       <c r="O25">
-        <v>3.233113664549307</v>
+        <v>1.656263105608161</v>
       </c>
     </row>
   </sheetData>
